--- a/Hydrophones/Results/noise_corrected/calculations/storm3_results.xlsx
+++ b/Hydrophones/Results/noise_corrected/calculations/storm3_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Results\noise_corrected\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5063AC3-6B82-441F-A21B-14EE59C0D099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26501E59-29EC-40DA-ABCF-FFF9CB012270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACBE6CE9-2E59-4EB0-85F4-02C616FF90B4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>max_amp</t>
   </si>
@@ -5535,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D398C5CC-EE4E-4D3E-ACAE-DFF5A57EB2DF}">
   <dimension ref="A1:CT131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15690,6 +15690,17 @@
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" ref="B62:B63" si="6">MAX(B29:CT29)</f>
+        <v>32.007500319999998</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" ref="C62:C63" si="7">_xlfn.XLOOKUP(MAX(B29:CS29), B29:CS29, $B$1:$CS$1)</f>
+        <v>44781.625694444447</v>
+      </c>
       <c r="E62" s="1">
         <v>44781.281944444447</v>
       </c>
@@ -15704,6 +15715,17 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="6"/>
+        <v>23.970478424313601</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="7"/>
+        <v>44781.625694444447</v>
+      </c>
       <c r="E63" s="1">
         <v>44781.292361111111</v>
       </c>
